--- a/InputData/elec/NGEpUO/Nonfuel GHG Emis per Unit Output.xlsx
+++ b/InputData/elec/NGEpUO/Nonfuel GHG Emis per Unit Output.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\NGEpUO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\elec\NGEpUO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1196530D-A4CA-4CD8-B053-530C982CF30D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="15600" windowHeight="11310"/>
+    <workbookView xWindow="49080" yWindow="630" windowWidth="14370" windowHeight="12675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="NGEpUO" sheetId="2" r:id="rId2"/>
+    <sheet name="Texas Notes" sheetId="3" r:id="rId2"/>
+    <sheet name="NGEpUO" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="95">
   <si>
     <t>nuclear</t>
   </si>
@@ -218,13 +230,100 @@
   </si>
   <si>
     <t>This variable represents the embedded carbon emissions in power plant equipment and building materials. The data sources report emissions on a per unit output basis as part of lifecycle analyses.</t>
+  </si>
+  <si>
+    <t>called the LCA harmonization project where they</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review the literature and other studies that assign </t>
+  </si>
+  <si>
+    <t>LCA values to power plants, and then show the</t>
+  </si>
+  <si>
+    <t>range in values that can be found.</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/analysis/life-cycle-assessment.html</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/docs/fy13osti/57187.pdf</t>
+  </si>
+  <si>
+    <t>gCO2e / kWh</t>
+  </si>
+  <si>
+    <t>metric tons CO2 / MWh</t>
+  </si>
+  <si>
+    <t>Here are the "harmonized" median values from their report:</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/docs/fy13osti/57131.pdf</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/docs/fy13osti/56487.pdf</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/docs/fy13osti/56416.pdf</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/pdf/10.1111/j.1530-9290.2012.00472.x</t>
+  </si>
+  <si>
+    <t>NREL released an excellent report on powerplant LCA in 2014</t>
+  </si>
+  <si>
+    <t>The study does not separate fuel and non-fuel LCA numbers, so their numbers for fossil and biopower plants are not useful here.</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/docs/fy17osti/68474.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ipcc-wg3.de/report/IPCC_SRREN_Ch05.pdf</t>
+  </si>
+  <si>
+    <t>Error vs. Original EPS</t>
+  </si>
+  <si>
+    <t>Thoughts:</t>
+  </si>
+  <si>
+    <t>EPS Uses this source for a couple of its existing numbers (wind and hydro)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So the 68 and 26 values used for their non-fuel LCA emissions are very small compared to their fuel LCA emissions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">So even if newer numbers were updated to 2020 and changed by 20-30%, they would still have only a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">small impact on the overall CO2 emissions of these technologies. </t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/energyexplained/geothermal/where-geothermal-energy-is-found.php</t>
+  </si>
+  <si>
+    <t>assume EGS numbers b/c Texas has relatively low temperature resources</t>
+  </si>
+  <si>
+    <t>solar thermal actually has its own value in the NREL study, so we don't need to use PV as a proxy</t>
+  </si>
+  <si>
+    <t>I couldn't find a new source for coal, biomass, natural gas plants, oil, or msw plants</t>
+  </si>
+  <si>
+    <t>But I think this is okay because fuel emissions will dominate these technologies anyway.</t>
+  </si>
+  <si>
+    <t>In the chart on the right, for example, when we include fuel, NGCC emissions are 500 g/kWh and Coal is 1000 g/kWh.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +362,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -287,11 +393,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -318,11 +425,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -340,6 +455,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B73B079-9930-4B48-A65B-DC8F809E25D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5924550" y="238125"/>
+          <a:ext cx="7543800" cy="5838825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,6 +599,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -453,6 +651,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -628,30 +843,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="50.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="74.7109375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="16.265625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="50.1328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="74.73046875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>54</v>
       </c>
@@ -661,7 +876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -675,7 +890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -690,7 +905,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="7"/>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -699,7 +914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="7"/>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -708,7 +923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="7"/>
       <c r="C8" s="3" t="s">
         <v>28</v>
@@ -717,13 +932,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
@@ -733,7 +948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -747,7 +962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -762,7 +977,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
@@ -770,7 +985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
@@ -778,7 +993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
@@ -786,7 +1001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
@@ -794,7 +1009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
@@ -804,7 +1019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -818,7 +1033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
@@ -833,7 +1048,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
@@ -841,7 +1056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
@@ -849,7 +1064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C22" s="3" t="s">
         <v>28</v>
       </c>
@@ -857,12 +1072,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C23" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
@@ -872,7 +1087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -886,7 +1101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
@@ -901,7 +1116,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
@@ -909,7 +1124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C28" s="3" t="s">
         <v>7</v>
       </c>
@@ -917,7 +1132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
@@ -925,12 +1140,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C30" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>55</v>
       </c>
@@ -940,7 +1155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
@@ -954,7 +1169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
@@ -969,7 +1184,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C34" s="3" t="s">
         <v>9</v>
       </c>
@@ -977,7 +1192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C35" s="3" t="s">
         <v>7</v>
       </c>
@@ -985,7 +1200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C36" s="3" t="s">
         <v>28</v>
       </c>
@@ -993,12 +1208,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C37" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -1008,7 +1223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>27</v>
       </c>
@@ -1022,7 +1237,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>35</v>
       </c>
@@ -1037,7 +1252,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C41" s="3" t="s">
         <v>9</v>
       </c>
@@ -1045,7 +1260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
@@ -1053,7 +1268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C43" s="3" t="s">
         <v>28</v>
       </c>
@@ -1061,12 +1276,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C44" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>38</v>
       </c>
@@ -1076,7 +1291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>27</v>
       </c>
@@ -1088,7 +1303,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>35</v>
       </c>
@@ -1097,7 +1312,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
@@ -1107,7 +1322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>27</v>
       </c>
@@ -1121,7 +1336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>35</v>
       </c>
@@ -1136,7 +1351,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C55" s="3" t="s">
         <v>9</v>
       </c>
@@ -1144,7 +1359,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C56" s="3" t="s">
         <v>7</v>
       </c>
@@ -1152,7 +1367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C57" s="3" t="s">
         <v>28</v>
       </c>
@@ -1160,12 +1375,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C58" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>43</v>
       </c>
@@ -1173,7 +1388,7 @@
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>27</v>
       </c>
@@ -1187,7 +1402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>35</v>
       </c>
@@ -1202,7 +1417,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C62" s="3" t="s">
         <v>9</v>
       </c>
@@ -1210,7 +1425,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C63" s="3" t="s">
         <v>7</v>
       </c>
@@ -1218,7 +1433,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C64" s="3" t="s">
         <v>28</v>
       </c>
@@ -1226,12 +1441,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C65" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>44</v>
       </c>
@@ -1239,7 +1454,7 @@
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>27</v>
       </c>
@@ -1251,7 +1466,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>35</v>
       </c>
@@ -1260,7 +1475,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>45</v>
       </c>
@@ -1268,7 +1483,7 @@
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>27</v>
       </c>
@@ -1280,7 +1495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>35</v>
       </c>
@@ -1289,7 +1504,7 @@
         <v>6.8599999999999994E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>52</v>
       </c>
@@ -1297,7 +1512,7 @@
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>27</v>
       </c>
@@ -1309,7 +1524,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>35</v>
       </c>
@@ -1318,7 +1533,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>53</v>
       </c>
@@ -1326,7 +1541,7 @@
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>27</v>
       </c>
@@ -1338,7 +1553,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>35</v>
       </c>
@@ -1347,7 +1562,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>58</v>
       </c>
@@ -1355,7 +1570,7 @@
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>27</v>
       </c>
@@ -1367,7 +1582,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>35</v>
       </c>
@@ -1376,7 +1591,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>59</v>
       </c>
@@ -1384,7 +1599,7 @@
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>27</v>
       </c>
@@ -1396,7 +1611,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>35</v>
       </c>
@@ -1405,7 +1620,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>60</v>
       </c>
@@ -1413,7 +1628,7 @@
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>27</v>
       </c>
@@ -1425,7 +1640,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>35</v>
       </c>
@@ -1434,26 +1649,26 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="2" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D21" r:id="rId1"/>
-    <hyperlink ref="D35" r:id="rId2"/>
-    <hyperlink ref="D14" r:id="rId3"/>
-    <hyperlink ref="D7" r:id="rId4"/>
-    <hyperlink ref="D28" r:id="rId5"/>
-    <hyperlink ref="D42" r:id="rId6"/>
-    <hyperlink ref="D56" r:id="rId7"/>
-    <hyperlink ref="D63" r:id="rId8"/>
+    <hyperlink ref="D21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D35" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D28" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D42" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D56" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D63" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
@@ -1461,28 +1676,387 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB03248-2193-4816-8411-1CB041E28B0F}">
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.265625" customWidth="1"/>
+    <col min="2" max="4" width="22.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="6">
+        <v>12</v>
+      </c>
+      <c r="C18" s="6">
+        <f>B18/1000</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="D18" s="12">
+        <f>(C18-About!B19)/About!B19</f>
+        <v>-0.16376306620209058</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6">
+        <v>7</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" ref="C19:C28" si="0">B19/1000</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D19" s="12">
+        <f>(C19-About!B26)/About!B26</f>
+        <v>6.0606060606060635E-2</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="6">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D20" s="12">
+        <f>(C20-About!B33)/About!B33</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="6">
+        <v>48</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="0"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D21" s="12">
+        <f>(C21-About!B40)/About!B40</f>
+        <v>6.6666666666666735E-2</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="6">
+        <v>22.5</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" si="0"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="D22" s="12">
+        <f>(C22-About!B47)/About!B47</f>
+        <v>-0.5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="6">
+        <v>32</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D24" s="12">
+        <f>(C24-About!B61)/About!B61</f>
+        <v>-0.36000000000000004</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="12"/>
+      <c r="F25" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="6">
+        <v>11</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D28" s="12">
+        <f>(C28-About!B87)/About!B87</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{8A32425F-D20B-4B50-8013-C19AB7C7FD0F}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{9DBD4D12-76BE-40A8-9E51-EE5F6A63C13E}"/>
+    <hyperlink ref="E20" r:id="rId3" xr:uid="{55AE6109-F609-426B-8F5A-B4B7723E1647}"/>
+    <hyperlink ref="E28" r:id="rId4" xr:uid="{342B38C4-5B1D-4745-99CB-0CBF0AB27562}"/>
+    <hyperlink ref="E21" r:id="rId5" xr:uid="{A8A39345-0924-42AF-ADD2-FBE5C77E2D0F}"/>
+    <hyperlink ref="F22" r:id="rId6" xr:uid="{3BDECB6D-E4C1-4906-88FB-CEE364FFAE6A}"/>
+    <hyperlink ref="E18" r:id="rId7" xr:uid="{A40684E4-0D24-4445-84B5-20D5B9809FBD}"/>
+    <hyperlink ref="E24" r:id="rId8" xr:uid="{49B0DC03-F93A-4F1C-A2A0-FE95BAD476BD}"/>
+    <hyperlink ref="E19" r:id="rId9" xr:uid="{88BA4A63-2937-407E-B003-198486152F85}"/>
+    <hyperlink ref="F25" r:id="rId10" xr:uid="{5A1CB862-70F6-4766-AF9D-1D02A147534A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1491,7 +2065,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1500,52 +2074,52 @@
         <v>6.8599999999999994E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
-        <f>About!B19</f>
-        <v>1.435E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Texas Notes'!C18</f>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5">
-        <f>About!B26</f>
-        <v>6.6E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Texas Notes'!C19</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6">
-        <f>About!B33</f>
+        <f>'Texas Notes'!C20</f>
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>37</v>
       </c>
       <c r="B7">
-        <f>About!B40</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Texas Notes'!C21</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>38</v>
       </c>
       <c r="B8">
-        <f>About!B47</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Texas Notes'!C22</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1554,16 +2128,16 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="10">
-        <f>About!B61</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>'Texas Notes'!C24</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1572,7 +2146,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1581,7 +2155,7 @@
         <v>6.8599999999999994E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1590,16 +2164,16 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>53</v>
       </c>
       <c r="B14">
-        <f>About!B87</f>
+        <f>'Texas Notes'!C28</f>
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -1608,7 +2182,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -1617,7 +2191,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>60</v>
       </c>
